--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,31 +639,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 10792-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 10792-2020.xlsx", "A 10792-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 10792-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 10792-2020.png", "A 10792-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/knärot/A 10792-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/knärot/A 10792-2020.png", "A 10792-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 10792-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 10792-2020.docx", "A 10792-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 10792-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 10792-2020.docx", "A 10792-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 10792-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 10792-2020.docx", "A 10792-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 10792-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 10792-2020.docx", "A 10792-2020")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,31 +743,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 8676-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 8676-2020.xlsx", "A 8676-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 8676-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 8676-2020.png", "A 8676-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/knärot/A 8676-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/knärot/A 8676-2020.png", "A 8676-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 8676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 8676-2020.docx", "A 8676-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 8676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 8676-2020.docx", "A 8676-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 8676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 8676-2020.docx", "A 8676-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 8676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 8676-2020.docx", "A 8676-2020")</f>
         <v/>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,27 +834,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 5039-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 5039-2019.xlsx", "A 5039-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 5039-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 5039-2019.png", "A 5039-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 5039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 5039-2019.docx", "A 5039-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 5039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 5039-2019.docx", "A 5039-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 5039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 5039-2019.docx", "A 5039-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 5039-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 5039-2019.docx", "A 5039-2019")</f>
         <v/>
       </c>
     </row>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,27 +926,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 28438-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 28438-2022.xlsx", "A 28438-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 28438-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 28438-2022.png", "A 28438-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 28438-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 28438-2022.docx", "A 28438-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 28438-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 28438-2022.docx", "A 28438-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 28438-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 28438-2022.docx", "A 28438-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 28438-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 28438-2022.docx", "A 28438-2022")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,27 +1017,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 44399-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 44399-2019.xlsx", "A 44399-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 44399-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 44399-2019.png", "A 44399-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 44399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 44399-2019.docx", "A 44399-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 44399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 44399-2019.docx", "A 44399-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 44399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 44399-2019.docx", "A 44399-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 44399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 44399-2019.docx", "A 44399-2019")</f>
         <v/>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,27 +1108,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 9956-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 9956-2022.xlsx", "A 9956-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 9956-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 9956-2022.png", "A 9956-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 9956-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 9956-2022.docx", "A 9956-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 9956-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 9956-2022.docx", "A 9956-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 9956-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 9956-2022.docx", "A 9956-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 9956-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 9956-2022.docx", "A 9956-2022")</f>
         <v/>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,27 +1193,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 20831-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 20831-2019.xlsx", "A 20831-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 20831-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 20831-2019.png", "A 20831-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 20831-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 20831-2019.docx", "A 20831-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 20831-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 20831-2019.docx", "A 20831-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 20831-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 20831-2019.docx", "A 20831-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 20831-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 20831-2019.docx", "A 20831-2019")</f>
         <v/>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,31 +1283,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 38127-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 38127-2021.xlsx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 38127-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 38127-2021.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/knärot/A 38127-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/knärot/A 38127-2021.png", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 38127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 38127-2021.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 38127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 38127-2021.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 38127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 38127-2021.docx", "A 38127-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 38127-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 38127-2021.docx", "A 38127-2021")</f>
         <v/>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,27 +1377,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 28435-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 28435-2022.xlsx", "A 28435-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 28435-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 28435-2022.png", "A 28435-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 28435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 28435-2022.docx", "A 28435-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 28435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 28435-2022.docx", "A 28435-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 28435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 28435-2022.docx", "A 28435-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 28435-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 28435-2022.docx", "A 28435-2022")</f>
         <v/>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,27 +1462,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 29532-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 29532-2022.xlsx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 29532-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 29532-2022.png", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 29532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 29532-2022.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 29532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 29532-2022.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 29532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 29532-2022.docx", "A 29532-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 29532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 29532-2022.docx", "A 29532-2022")</f>
         <v/>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,27 +1552,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 15334-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 15334-2023.xlsx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 15334-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 15334-2023.png", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 15334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 15334-2023.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 15334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 15334-2023.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 15334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 15334-2023.docx", "A 15334-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 15334-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 15334-2023.docx", "A 15334-2023")</f>
         <v/>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,27 +1642,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 15631-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/artfynd/A 15631-2023.xlsx", "A 15631-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 15631-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/kartor/A 15631-2023.png", "A 15631-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 15631-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomål/A 15631-2023.docx", "A 15631-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 15631-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/klagomålsmail/A 15631-2023.docx", "A 15631-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 15631-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsyn/A 15631-2023.docx", "A 15631-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 15631-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FAGERSTA/tillsynsmail/A 15631-2023.docx", "A 15631-2023")</f>
         <v/>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>

--- a/Översikt FAGERSTA.xlsx
+++ b/Översikt FAGERSTA.xlsx
@@ -572,7 +572,7 @@
         <v>43888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43878</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43487</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44747</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>43711</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44747</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44753</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45021</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>43370</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>43440</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43479</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43553</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43564</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43595</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43650</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43668</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43685</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43745</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43788</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43788</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43854</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43882</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43892</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>43899</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43983</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>44039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44046</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44061</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44061</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>44068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44075</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44075</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>44085</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44097</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44097</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>44097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>44113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44161</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44168</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44168</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44172</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44172</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44295</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44300</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>44300</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44380</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44405</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44422</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44533</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44678</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44683</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>44722</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44739</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44753</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44753</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44795</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44825</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44840</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44858</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44872</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44919</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44971</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44987</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44991</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44994</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>44994</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>44994</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44998</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45041</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45041</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45041</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45041</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45048</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45054</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45069</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45071</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45071</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45071</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45071</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45072</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45112</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45131</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45142</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
